--- a/Code/Results/Cases/Case_3_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.81050296150332</v>
+        <v>8.383390763675381</v>
       </c>
       <c r="C2">
-        <v>7.126675923193041</v>
+        <v>6.398501588092466</v>
       </c>
       <c r="D2">
-        <v>5.446571579421223</v>
+        <v>4.516332085582391</v>
       </c>
       <c r="F2">
-        <v>13.80026709441212</v>
+        <v>20.13466825117663</v>
       </c>
       <c r="G2">
-        <v>15.13486145843689</v>
+        <v>21.52392639752492</v>
       </c>
       <c r="H2">
-        <v>7.398969222460725</v>
+        <v>12.61216335643556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.44499361147962</v>
+        <v>8.377039131893014</v>
       </c>
       <c r="N2">
-        <v>11.56197565107473</v>
+        <v>17.08841876230734</v>
       </c>
       <c r="O2">
-        <v>11.14453057423058</v>
+        <v>18.20840019444088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01968081224492</v>
+        <v>8.051603992731851</v>
       </c>
       <c r="C3">
-        <v>6.897187299040445</v>
+        <v>6.313838272946482</v>
       </c>
       <c r="D3">
-        <v>5.180206582179869</v>
+        <v>4.40406399120435</v>
       </c>
       <c r="F3">
-        <v>13.66812905622948</v>
+        <v>20.19153138429924</v>
       </c>
       <c r="G3">
-        <v>15.09034093093343</v>
+        <v>21.62587227222362</v>
       </c>
       <c r="H3">
-        <v>7.487407534286119</v>
+        <v>12.65686267874412</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86196303630671</v>
+        <v>8.10791070653498</v>
       </c>
       <c r="N3">
-        <v>11.67461843879763</v>
+        <v>17.12981588840008</v>
       </c>
       <c r="O3">
-        <v>11.25572961050923</v>
+        <v>18.28749447322488</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.50600009715636</v>
+        <v>7.841484863862886</v>
       </c>
       <c r="C4">
-        <v>6.75225086700608</v>
+        <v>6.261117228711338</v>
       </c>
       <c r="D4">
-        <v>5.008815872802105</v>
+        <v>4.332837377937192</v>
       </c>
       <c r="F4">
-        <v>13.6001304900937</v>
+        <v>20.23182984366015</v>
       </c>
       <c r="G4">
-        <v>15.08490468863257</v>
+        <v>21.6958978076013</v>
       </c>
       <c r="H4">
-        <v>7.545586783247607</v>
+        <v>12.68609766366574</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.48651237630718</v>
+        <v>7.936556261092459</v>
       </c>
       <c r="N4">
-        <v>11.74675978845662</v>
+        <v>17.15676634705311</v>
       </c>
       <c r="O4">
-        <v>11.33336744886051</v>
+        <v>18.33973899806802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.28962101701564</v>
+        <v>7.754375333004056</v>
       </c>
       <c r="C5">
-        <v>6.692241172910639</v>
+        <v>6.239464286947438</v>
       </c>
       <c r="D5">
-        <v>4.937045219079977</v>
+        <v>4.303259176983968</v>
       </c>
       <c r="F5">
-        <v>13.57566453842557</v>
+        <v>20.24960243589841</v>
       </c>
       <c r="G5">
-        <v>15.08797727255289</v>
+        <v>21.72629322583527</v>
       </c>
       <c r="H5">
-        <v>7.570245941230265</v>
+        <v>12.69846158934152</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.3292133209737</v>
+        <v>7.865258215294769</v>
       </c>
       <c r="N5">
-        <v>11.77690163846814</v>
+        <v>17.16813498775783</v>
       </c>
       <c r="O5">
-        <v>11.36726432618058</v>
+        <v>18.36195385560065</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25326641639816</v>
+        <v>7.739825161412315</v>
       </c>
       <c r="C6">
-        <v>6.682221478515293</v>
+        <v>6.235859139096298</v>
       </c>
       <c r="D6">
-        <v>4.925012800158073</v>
+        <v>4.298315086586202</v>
       </c>
       <c r="F6">
-        <v>13.57179597832208</v>
+        <v>20.25263503483898</v>
       </c>
       <c r="G6">
-        <v>15.08880016884499</v>
+        <v>21.73145239964096</v>
       </c>
       <c r="H6">
-        <v>7.574397309706371</v>
+        <v>12.70054182869462</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.30283731737707</v>
+        <v>7.853332530262238</v>
       </c>
       <c r="N6">
-        <v>11.78195144475589</v>
+        <v>17.17004608453155</v>
       </c>
       <c r="O6">
-        <v>11.37302660113926</v>
+        <v>18.36569845189284</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50311044507866</v>
+        <v>7.84031590787137</v>
       </c>
       <c r="C7">
-        <v>6.75144529709732</v>
+        <v>6.260825870244934</v>
       </c>
       <c r="D7">
-        <v>5.007855688509573</v>
+        <v>4.332440681248701</v>
       </c>
       <c r="F7">
-        <v>13.59978748474867</v>
+        <v>20.23206406690626</v>
       </c>
       <c r="G7">
-        <v>15.08492501602167</v>
+        <v>21.69630021409005</v>
       </c>
       <c r="H7">
-        <v>7.545915527205422</v>
+        <v>12.68626258347852</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.48440825988683</v>
+        <v>7.935600569059294</v>
       </c>
       <c r="N7">
-        <v>11.74716328732584</v>
+        <v>17.15691810415304</v>
       </c>
       <c r="O7">
-        <v>11.33381557079374</v>
+        <v>18.34003485181801</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5436703761257</v>
+        <v>8.270389833892219</v>
       </c>
       <c r="C8">
-        <v>7.048422415185598</v>
+        <v>6.369472676659331</v>
       </c>
       <c r="D8">
-        <v>5.356380430938288</v>
+        <v>4.478111907472025</v>
       </c>
       <c r="F8">
-        <v>13.75194792143249</v>
+        <v>20.15315528129901</v>
       </c>
       <c r="G8">
-        <v>15.11483877048437</v>
+        <v>21.5575298549145</v>
       </c>
       <c r="H8">
-        <v>7.428642675024534</v>
+        <v>12.62720456962764</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.24763975168239</v>
+        <v>8.285549215466204</v>
       </c>
       <c r="N8">
-        <v>11.60019341135658</v>
+        <v>17.10237488763453</v>
       </c>
       <c r="O8">
-        <v>11.18087063469482</v>
+        <v>18.23490765731063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.36083606949004</v>
+        <v>9.058189613682215</v>
       </c>
       <c r="C9">
-        <v>7.596227122921912</v>
+        <v>6.575960204360687</v>
       </c>
       <c r="D9">
-        <v>5.97607543561009</v>
+        <v>4.744610859569119</v>
       </c>
       <c r="F9">
-        <v>14.15659263073499</v>
+        <v>20.04127024203244</v>
       </c>
       <c r="G9">
-        <v>15.35611161492251</v>
+        <v>21.34474581413324</v>
       </c>
       <c r="H9">
-        <v>7.230627521928505</v>
+        <v>12.52556899504772</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.60258156484004</v>
+        <v>8.92074673433083</v>
       </c>
       <c r="N9">
-        <v>11.33588274268093</v>
+        <v>17.00754071345407</v>
       </c>
       <c r="O9">
-        <v>10.95968234740592</v>
+        <v>18.05798441773572</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.55993039930198</v>
+        <v>9.597619209134322</v>
       </c>
       <c r="C10">
-        <v>7.974587223698222</v>
+        <v>6.722731277801544</v>
       </c>
       <c r="D10">
-        <v>6.390909508042444</v>
+        <v>4.927558276605956</v>
       </c>
       <c r="F10">
-        <v>14.52063059831355</v>
+        <v>19.98535551648219</v>
       </c>
       <c r="G10">
-        <v>15.65519584300788</v>
+        <v>21.22509954320446</v>
       </c>
       <c r="H10">
-        <v>7.106411563620537</v>
+        <v>12.45951046437427</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.50848609718788</v>
+        <v>9.353282376604049</v>
       </c>
       <c r="N10">
-        <v>11.15668131455202</v>
+        <v>16.94520994514743</v>
       </c>
       <c r="O10">
-        <v>10.85157031459216</v>
+        <v>17.94585857839899</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.07607351548193</v>
+        <v>9.833549983907938</v>
       </c>
       <c r="C11">
-        <v>8.140951736729587</v>
+        <v>6.788241650761391</v>
       </c>
       <c r="D11">
-        <v>6.570621507667187</v>
+        <v>5.007782134841358</v>
       </c>
       <c r="F11">
-        <v>14.70092677893104</v>
+        <v>19.96565340070045</v>
       </c>
       <c r="G11">
-        <v>15.81944867178244</v>
+        <v>21.17873641844142</v>
       </c>
       <c r="H11">
-        <v>7.054955156527104</v>
+        <v>12.43132291283813</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.90073954154879</v>
+        <v>9.54211538058591</v>
       </c>
       <c r="N11">
-        <v>11.07852339354316</v>
+        <v>16.91843874447682</v>
       </c>
       <c r="O11">
-        <v>10.81564993246983</v>
+        <v>17.89873655645885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.2673244837586</v>
+        <v>9.921467724077813</v>
       </c>
       <c r="C12">
-        <v>8.203085578254619</v>
+        <v>6.812852996917618</v>
       </c>
       <c r="D12">
-        <v>6.637366910720346</v>
+        <v>5.037713690017422</v>
       </c>
       <c r="F12">
-        <v>14.7713143237039</v>
+        <v>19.95901875892003</v>
       </c>
       <c r="G12">
-        <v>15.88580783166813</v>
+        <v>21.16234723822602</v>
       </c>
       <c r="H12">
-        <v>7.0362360464563</v>
+        <v>12.42091647825356</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.04639922413392</v>
+        <v>9.612444209581177</v>
       </c>
       <c r="N12">
-        <v>11.04942153179426</v>
+        <v>16.90852814590681</v>
       </c>
       <c r="O12">
-        <v>10.80407868359573</v>
+        <v>17.88145211214852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22632171386111</v>
+        <v>9.902597326923519</v>
       </c>
       <c r="C13">
-        <v>8.189742949118262</v>
+        <v>6.807561458293019</v>
       </c>
       <c r="D13">
-        <v>6.623050430362124</v>
+        <v>5.031287536174974</v>
       </c>
       <c r="F13">
-        <v>14.75606119952366</v>
+        <v>19.96041088471695</v>
       </c>
       <c r="G13">
-        <v>15.87132977706848</v>
+        <v>21.16582489539234</v>
       </c>
       <c r="H13">
-        <v>7.040232787869074</v>
+        <v>12.42314579394798</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.01515711276834</v>
+        <v>9.59735058923585</v>
       </c>
       <c r="N13">
-        <v>11.05566693332778</v>
+        <v>16.91065248108211</v>
       </c>
       <c r="O13">
-        <v>10.80647842357845</v>
+        <v>17.88514971949403</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09189193870451</v>
+        <v>9.840811905212227</v>
       </c>
       <c r="C14">
-        <v>8.146081053794454</v>
+        <v>6.79027045497044</v>
       </c>
       <c r="D14">
-        <v>6.576138964416739</v>
+        <v>5.010253676912436</v>
       </c>
       <c r="F14">
-        <v>14.70667527856378</v>
+        <v>19.96509100032795</v>
       </c>
       <c r="G14">
-        <v>15.82482419392136</v>
+        <v>21.17736462844183</v>
       </c>
       <c r="H14">
-        <v>7.05339952519258</v>
+        <v>12.43046140812513</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.91278084418076</v>
+        <v>9.547925187543315</v>
       </c>
       <c r="N14">
-        <v>11.07611917804672</v>
+        <v>16.91761884613209</v>
       </c>
       <c r="O14">
-        <v>10.81465653342365</v>
+        <v>17.89730333273044</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00900325040839</v>
+        <v>9.802779343471695</v>
       </c>
       <c r="C15">
-        <v>8.119223234590926</v>
+        <v>6.779653245411568</v>
       </c>
       <c r="D15">
-        <v>6.547233701350658</v>
+        <v>4.997311103718234</v>
       </c>
       <c r="F15">
-        <v>14.67670005699406</v>
+        <v>19.96806533215681</v>
       </c>
       <c r="G15">
-        <v>15.79688263574934</v>
+        <v>21.18458531969994</v>
       </c>
       <c r="H15">
-        <v>7.061565572125224</v>
+        <v>12.43497727140415</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.84969702010378</v>
+        <v>9.517496230247257</v>
       </c>
       <c r="N15">
-        <v>11.08871157471919</v>
+        <v>16.92191549964104</v>
       </c>
       <c r="O15">
-        <v>10.81993409222158</v>
+        <v>17.90482068493962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.52561034454463</v>
+        <v>9.582004566909129</v>
       </c>
       <c r="C16">
-        <v>7.963595821626014</v>
+        <v>6.718423412723627</v>
       </c>
       <c r="D16">
-        <v>6.378982582413436</v>
+        <v>4.922253682763991</v>
       </c>
       <c r="F16">
-        <v>14.50914371902256</v>
+        <v>19.98675862197219</v>
       </c>
       <c r="G16">
-        <v>15.6450385579343</v>
+        <v>21.22829244447822</v>
       </c>
       <c r="H16">
-        <v>7.10987934104061</v>
+        <v>12.46139004650708</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.48244977999133</v>
+        <v>9.340778787391731</v>
       </c>
       <c r="N16">
-        <v>11.16185771186212</v>
+        <v>16.94699131491901</v>
       </c>
       <c r="O16">
-        <v>10.85419518196334</v>
+        <v>17.94901637014111</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22156262013902</v>
+        <v>9.444095341098684</v>
       </c>
       <c r="C17">
-        <v>7.866621602117456</v>
+        <v>6.68052797488379</v>
       </c>
       <c r="D17">
-        <v>6.273450359486074</v>
+        <v>4.875428109155937</v>
       </c>
       <c r="F17">
-        <v>14.41011973980965</v>
+        <v>19.99969619079611</v>
       </c>
       <c r="G17">
-        <v>15.55919265298576</v>
+        <v>21.2571766178868</v>
       </c>
       <c r="H17">
-        <v>7.140839301408263</v>
+        <v>12.47807032746573</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.25205228526301</v>
+        <v>9.230308946146756</v>
       </c>
       <c r="N17">
-        <v>11.20759923100092</v>
+        <v>16.96277961560602</v>
       </c>
       <c r="O17">
-        <v>10.87869701122492</v>
+        <v>17.9771246662989</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.04392039024404</v>
+        <v>9.363886528527932</v>
       </c>
       <c r="C18">
-        <v>7.810304966366999</v>
+        <v>6.658614130727276</v>
       </c>
       <c r="D18">
-        <v>6.211904629465366</v>
+        <v>4.848213781865559</v>
       </c>
       <c r="F18">
-        <v>14.35454735959346</v>
+        <v>20.00767715870404</v>
       </c>
       <c r="G18">
-        <v>15.5124658643258</v>
+        <v>21.27454866500735</v>
       </c>
       <c r="H18">
-        <v>7.159119402852279</v>
+        <v>12.4878397364696</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.11766651079731</v>
+        <v>9.166025190526764</v>
       </c>
       <c r="N18">
-        <v>11.23422419987934</v>
+        <v>16.97200969949479</v>
       </c>
       <c r="O18">
-        <v>10.89403031354502</v>
+        <v>17.9936573871604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.9832989639142</v>
+        <v>9.336578949875864</v>
       </c>
       <c r="C19">
-        <v>7.791145663333389</v>
+        <v>6.651174794415401</v>
       </c>
       <c r="D19">
-        <v>6.190921415597908</v>
+        <v>4.838951646883035</v>
       </c>
       <c r="F19">
-        <v>14.33596898578352</v>
+        <v>20.01047200144282</v>
       </c>
       <c r="G19">
-        <v>15.49709638764639</v>
+        <v>21.28056059072995</v>
       </c>
       <c r="H19">
-        <v>7.165388753716652</v>
+        <v>12.49117761650933</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.07184597270032</v>
+        <v>9.144133190839682</v>
       </c>
       <c r="N19">
-        <v>11.24329284442291</v>
+        <v>16.97516046930259</v>
       </c>
       <c r="O19">
-        <v>10.89943122440679</v>
+        <v>17.99931783814202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25421477041474</v>
+        <v>9.458868315221606</v>
       </c>
       <c r="C20">
-        <v>7.8770008101959</v>
+        <v>6.684574271334891</v>
       </c>
       <c r="D20">
-        <v>6.284772153851947</v>
+        <v>4.880442026651627</v>
       </c>
       <c r="F20">
-        <v>14.42051778479403</v>
+        <v>19.99826310276375</v>
       </c>
       <c r="G20">
-        <v>15.56805603514788</v>
+        <v>21.25402327407497</v>
       </c>
       <c r="H20">
-        <v>7.137494351926203</v>
+        <v>12.47627653688886</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.27677194444568</v>
+        <v>9.242145983602033</v>
       </c>
       <c r="N20">
-        <v>11.20269722033153</v>
+        <v>16.96108350025349</v>
       </c>
       <c r="O20">
-        <v>10.8759594718522</v>
+        <v>17.97409464729494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13149109219716</v>
+        <v>9.858998896656797</v>
       </c>
       <c r="C21">
-        <v>8.158929354804553</v>
+        <v>6.795354680556211</v>
       </c>
       <c r="D21">
-        <v>6.589953578781612</v>
+        <v>5.016444096539415</v>
       </c>
       <c r="F21">
-        <v>14.72112380489445</v>
+        <v>19.96369390552621</v>
       </c>
       <c r="G21">
-        <v>15.83837039610424</v>
+        <v>21.17394338253485</v>
       </c>
       <c r="H21">
-        <v>7.049511002651526</v>
+        <v>12.42830537512481</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.94292950162383</v>
+        <v>9.56247487896866</v>
       </c>
       <c r="N21">
-        <v>11.07009833011124</v>
+        <v>16.91556649794867</v>
       </c>
       <c r="O21">
-        <v>10.81219830015554</v>
+        <v>17.89371832499891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68036410085629</v>
+        <v>10.11218299486678</v>
       </c>
       <c r="C22">
-        <v>8.338131369914093</v>
+        <v>6.8666069107995</v>
       </c>
       <c r="D22">
-        <v>6.781781551666517</v>
+        <v>5.102714643348321</v>
       </c>
       <c r="F22">
-        <v>14.92989967377663</v>
+        <v>19.9459166449067</v>
       </c>
       <c r="G22">
-        <v>16.0393155386673</v>
+        <v>21.12841508962916</v>
       </c>
       <c r="H22">
-        <v>6.996496310033262</v>
+        <v>12.39851298013243</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.36151997961236</v>
+        <v>9.76494690983831</v>
       </c>
       <c r="N22">
-        <v>10.98632793619957</v>
+        <v>16.88714179209112</v>
       </c>
       <c r="O22">
-        <v>10.78242435663305</v>
+        <v>17.84445026971054</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.38965356474696</v>
+        <v>9.97783439999869</v>
       </c>
       <c r="C23">
-        <v>8.242961481391157</v>
+        <v>6.828688307747862</v>
       </c>
       <c r="D23">
-        <v>6.680100704455297</v>
+        <v>5.056914604302035</v>
       </c>
       <c r="F23">
-        <v>14.81734744239519</v>
+        <v>19.9549636463572</v>
       </c>
       <c r="G23">
-        <v>15.92981777367411</v>
+        <v>21.15208894635397</v>
       </c>
       <c r="H23">
-        <v>7.024366576742336</v>
+        <v>12.41427113712148</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.13965186686276</v>
+        <v>9.657524753032044</v>
       </c>
       <c r="N23">
-        <v>11.03076913971091</v>
+        <v>16.90219171108004</v>
       </c>
       <c r="O23">
-        <v>10.79718495400135</v>
+        <v>17.87044668978772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.23946158401164</v>
+        <v>9.452192323483963</v>
       </c>
       <c r="C24">
-        <v>7.872310126756791</v>
+        <v>6.682745335910099</v>
       </c>
       <c r="D24">
-        <v>6.279656291384994</v>
+        <v>4.878176148070371</v>
       </c>
       <c r="F24">
-        <v>14.41581259945552</v>
+        <v>19.99890931065164</v>
       </c>
       <c r="G24">
-        <v>15.56404072533928</v>
+        <v>21.25544651494096</v>
       </c>
       <c r="H24">
-        <v>7.139005108977006</v>
+        <v>12.47708694985874</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.2656021873602</v>
+        <v>9.236796864324884</v>
       </c>
       <c r="N24">
-        <v>11.20491239992679</v>
+        <v>16.96184983681749</v>
       </c>
       <c r="O24">
-        <v>10.87719323904722</v>
+        <v>17.97546335745997</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8931635279408</v>
+        <v>8.851632941959551</v>
       </c>
       <c r="C25">
-        <v>7.452068774877583</v>
+        <v>6.520900943369861</v>
       </c>
       <c r="D25">
-        <v>5.815444252973332</v>
+        <v>4.6746943738831</v>
       </c>
       <c r="F25">
-        <v>14.0355028558872</v>
+        <v>20.06693202095495</v>
       </c>
       <c r="G25">
-        <v>15.27011953599351</v>
+        <v>21.39590238471622</v>
       </c>
       <c r="H25">
-        <v>7.280599505990233</v>
+        <v>12.55154946875415</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.25158622288161</v>
+        <v>8.754709077504936</v>
       </c>
       <c r="N25">
-        <v>11.4047877812957</v>
+        <v>17.03190280430455</v>
       </c>
       <c r="O25">
-        <v>11.01044558057649</v>
+        <v>18.10271342893637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_112/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.383390763675381</v>
+        <v>12.8105029615033</v>
       </c>
       <c r="C2">
-        <v>6.398501588092466</v>
+        <v>7.126675923193041</v>
       </c>
       <c r="D2">
-        <v>4.516332085582391</v>
+        <v>5.446571579421382</v>
       </c>
       <c r="F2">
-        <v>20.13466825117663</v>
+        <v>13.80026709441209</v>
       </c>
       <c r="G2">
-        <v>21.52392639752492</v>
+        <v>15.13486145843701</v>
       </c>
       <c r="H2">
-        <v>12.61216335643556</v>
+        <v>7.39896922246073</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.377039131893014</v>
+        <v>11.44499361147961</v>
       </c>
       <c r="N2">
-        <v>17.08841876230734</v>
+        <v>11.56197565107475</v>
       </c>
       <c r="O2">
-        <v>18.20840019444088</v>
+        <v>11.14453057423065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.051603992731851</v>
+        <v>12.01968081224498</v>
       </c>
       <c r="C3">
-        <v>6.313838272946482</v>
+        <v>6.897187299040004</v>
       </c>
       <c r="D3">
-        <v>4.40406399120435</v>
+        <v>5.180206582179786</v>
       </c>
       <c r="F3">
-        <v>20.19153138429924</v>
+        <v>13.66812905622947</v>
       </c>
       <c r="G3">
-        <v>21.62587227222362</v>
+        <v>15.09034093093332</v>
       </c>
       <c r="H3">
-        <v>12.65686267874412</v>
+        <v>7.487407534285992</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.10791070653498</v>
+        <v>10.86196303630664</v>
       </c>
       <c r="N3">
-        <v>17.12981588840008</v>
+        <v>11.6746184387975</v>
       </c>
       <c r="O3">
-        <v>18.28749447322488</v>
+        <v>11.2557296105092</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.841484863862886</v>
+        <v>11.50600009715632</v>
       </c>
       <c r="C4">
-        <v>6.261117228711338</v>
+        <v>6.752250867006003</v>
       </c>
       <c r="D4">
-        <v>4.332837377937192</v>
+        <v>5.008815872802189</v>
       </c>
       <c r="F4">
-        <v>20.23182984366015</v>
+        <v>13.60013049009371</v>
       </c>
       <c r="G4">
-        <v>21.6958978076013</v>
+        <v>15.08490468863268</v>
       </c>
       <c r="H4">
-        <v>12.68609766366574</v>
+        <v>7.545586783247611</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.936556261092459</v>
+        <v>10.48651237630716</v>
       </c>
       <c r="N4">
-        <v>17.15676634705311</v>
+        <v>11.74675978845662</v>
       </c>
       <c r="O4">
-        <v>18.33973899806802</v>
+        <v>11.33336744886057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.754375333004056</v>
+        <v>11.28962101701563</v>
       </c>
       <c r="C5">
-        <v>6.239464286947438</v>
+        <v>6.692241172910649</v>
       </c>
       <c r="D5">
-        <v>4.303259176983968</v>
+        <v>4.937045219079843</v>
       </c>
       <c r="F5">
-        <v>20.24960243589841</v>
+        <v>13.5756645384256</v>
       </c>
       <c r="G5">
-        <v>21.72629322583527</v>
+        <v>15.08797727255284</v>
       </c>
       <c r="H5">
-        <v>12.69846158934152</v>
+        <v>7.57024594123026</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.865258215294769</v>
+        <v>10.3292133209737</v>
       </c>
       <c r="N5">
-        <v>17.16813498775783</v>
+        <v>11.77690163846815</v>
       </c>
       <c r="O5">
-        <v>18.36195385560065</v>
+        <v>11.36726432618057</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.739825161412315</v>
+        <v>11.25326641639816</v>
       </c>
       <c r="C6">
-        <v>6.235859139096298</v>
+        <v>6.682221478515517</v>
       </c>
       <c r="D6">
-        <v>4.298315086586202</v>
+        <v>4.925012800158073</v>
       </c>
       <c r="F6">
-        <v>20.25263503483898</v>
+        <v>13.57179597832204</v>
       </c>
       <c r="G6">
-        <v>21.73145239964096</v>
+        <v>15.08880016884479</v>
       </c>
       <c r="H6">
-        <v>12.70054182869462</v>
+        <v>7.574397309706373</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.853332530262238</v>
+        <v>10.30283731737711</v>
       </c>
       <c r="N6">
-        <v>17.17004608453155</v>
+        <v>11.78195144475589</v>
       </c>
       <c r="O6">
-        <v>18.36569845189284</v>
+        <v>11.37302660113921</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.84031590787137</v>
+        <v>11.50311044507865</v>
       </c>
       <c r="C7">
-        <v>6.260825870244934</v>
+        <v>6.751445297097431</v>
       </c>
       <c r="D7">
-        <v>4.332440681248701</v>
+        <v>5.00785568850953</v>
       </c>
       <c r="F7">
-        <v>20.23206406690626</v>
+        <v>13.59978748474862</v>
       </c>
       <c r="G7">
-        <v>21.69630021409005</v>
+        <v>15.08492501602161</v>
       </c>
       <c r="H7">
-        <v>12.68626258347852</v>
+        <v>7.545915527205419</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.935600569059294</v>
+        <v>10.48440825988687</v>
       </c>
       <c r="N7">
-        <v>17.15691810415304</v>
+        <v>11.7471632873258</v>
       </c>
       <c r="O7">
-        <v>18.34003485181801</v>
+        <v>11.33381557079365</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.270389833892219</v>
+        <v>12.54367037612568</v>
       </c>
       <c r="C8">
-        <v>6.369472676659331</v>
+        <v>7.04842241518561</v>
       </c>
       <c r="D8">
-        <v>4.478111907472025</v>
+        <v>5.356380430938349</v>
       </c>
       <c r="F8">
-        <v>20.15315528129901</v>
+        <v>13.75194792143231</v>
       </c>
       <c r="G8">
-        <v>21.5575298549145</v>
+        <v>15.11483877048424</v>
       </c>
       <c r="H8">
-        <v>12.62720456962764</v>
+        <v>7.428642675024469</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.285549215466204</v>
+        <v>11.24763975168243</v>
       </c>
       <c r="N8">
-        <v>17.10237488763453</v>
+        <v>11.60019341135651</v>
       </c>
       <c r="O8">
-        <v>18.23490765731063</v>
+        <v>11.18087063469467</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.058189613682215</v>
+        <v>14.36083606949007</v>
       </c>
       <c r="C9">
-        <v>6.575960204360687</v>
+        <v>7.596227122921809</v>
       </c>
       <c r="D9">
-        <v>4.744610859569119</v>
+        <v>5.976075435610083</v>
       </c>
       <c r="F9">
-        <v>20.04127024203244</v>
+        <v>14.15659263073499</v>
       </c>
       <c r="G9">
-        <v>21.34474581413324</v>
+        <v>15.35611161492251</v>
       </c>
       <c r="H9">
-        <v>12.52556899504772</v>
+        <v>7.230627521928509</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.92074673433083</v>
+        <v>12.60258156484005</v>
       </c>
       <c r="N9">
-        <v>17.00754071345407</v>
+        <v>11.33588274268094</v>
       </c>
       <c r="O9">
-        <v>18.05798441773572</v>
+        <v>10.95968234740592</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.597619209134322</v>
+        <v>15.55993039930202</v>
       </c>
       <c r="C10">
-        <v>6.722731277801544</v>
+        <v>7.974587223698322</v>
       </c>
       <c r="D10">
-        <v>4.927558276605956</v>
+        <v>6.390909508042371</v>
       </c>
       <c r="F10">
-        <v>19.98535551648219</v>
+        <v>14.52063059831356</v>
       </c>
       <c r="G10">
-        <v>21.22509954320446</v>
+        <v>15.65519584300784</v>
       </c>
       <c r="H10">
-        <v>12.45951046437427</v>
+        <v>7.106411563620537</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.353282376604049</v>
+        <v>13.50848609718791</v>
       </c>
       <c r="N10">
-        <v>16.94520994514743</v>
+        <v>11.15668131455202</v>
       </c>
       <c r="O10">
-        <v>17.94585857839899</v>
+        <v>10.85157031459208</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.833549983907938</v>
+        <v>16.07607351548195</v>
       </c>
       <c r="C11">
-        <v>6.788241650761391</v>
+        <v>8.140951736729599</v>
       </c>
       <c r="D11">
-        <v>5.007782134841358</v>
+        <v>6.570621507667281</v>
       </c>
       <c r="F11">
-        <v>19.96565340070045</v>
+        <v>14.70092677893095</v>
       </c>
       <c r="G11">
-        <v>21.17873641844142</v>
+        <v>15.81944867178241</v>
       </c>
       <c r="H11">
-        <v>12.43132291283813</v>
+        <v>7.054955156526982</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.54211538058591</v>
+        <v>13.90073954154884</v>
       </c>
       <c r="N11">
-        <v>16.91843874447682</v>
+        <v>11.07852339354313</v>
       </c>
       <c r="O11">
-        <v>17.89873655645885</v>
+        <v>10.81564993246973</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.921467724077813</v>
+        <v>16.26732448375863</v>
       </c>
       <c r="C12">
-        <v>6.812852996917618</v>
+        <v>8.203085578254592</v>
       </c>
       <c r="D12">
-        <v>5.037713690017422</v>
+        <v>6.637366910720297</v>
       </c>
       <c r="F12">
-        <v>19.95901875892003</v>
+        <v>14.77131432370384</v>
       </c>
       <c r="G12">
-        <v>21.16234723822602</v>
+        <v>15.88580783166801</v>
       </c>
       <c r="H12">
-        <v>12.42091647825356</v>
+        <v>7.0362360464563</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.612444209581177</v>
+        <v>14.04639922413394</v>
       </c>
       <c r="N12">
-        <v>16.90852814590681</v>
+        <v>11.04942153179422</v>
       </c>
       <c r="O12">
-        <v>17.88145211214852</v>
+        <v>10.80407868359567</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.902597326923519</v>
+        <v>16.22632171386118</v>
       </c>
       <c r="C13">
-        <v>6.807561458293019</v>
+        <v>8.189742949118333</v>
       </c>
       <c r="D13">
-        <v>5.031287536174974</v>
+        <v>6.623050430362053</v>
       </c>
       <c r="F13">
-        <v>19.96041088471695</v>
+        <v>14.75606119952366</v>
       </c>
       <c r="G13">
-        <v>21.16582489539234</v>
+        <v>15.87132977706851</v>
       </c>
       <c r="H13">
-        <v>12.42314579394798</v>
+        <v>7.040232787869023</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.59735058923585</v>
+        <v>14.01515711276841</v>
       </c>
       <c r="N13">
-        <v>16.91065248108211</v>
+        <v>11.05566693332777</v>
       </c>
       <c r="O13">
-        <v>17.88514971949403</v>
+        <v>10.8064784235784</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.840811905212227</v>
+        <v>16.09189193870452</v>
       </c>
       <c r="C14">
-        <v>6.79027045497044</v>
+        <v>8.146081053794454</v>
       </c>
       <c r="D14">
-        <v>5.010253676912436</v>
+        <v>6.576138964416578</v>
       </c>
       <c r="F14">
-        <v>19.96509100032795</v>
+        <v>14.7066752785639</v>
       </c>
       <c r="G14">
-        <v>21.17736462844183</v>
+        <v>15.8248241939214</v>
       </c>
       <c r="H14">
-        <v>12.43046140812513</v>
+        <v>7.053399525192646</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.547925187543315</v>
+        <v>13.91278084418076</v>
       </c>
       <c r="N14">
-        <v>16.91761884613209</v>
+        <v>11.07611917804678</v>
       </c>
       <c r="O14">
-        <v>17.89730333273044</v>
+        <v>10.81465653342369</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.802779343471695</v>
+        <v>16.00900325040839</v>
       </c>
       <c r="C15">
-        <v>6.779653245411568</v>
+        <v>8.119223234591011</v>
       </c>
       <c r="D15">
-        <v>4.997311103718234</v>
+        <v>6.547233701350636</v>
       </c>
       <c r="F15">
-        <v>19.96806533215681</v>
+        <v>14.67670005699405</v>
       </c>
       <c r="G15">
-        <v>21.18458531969994</v>
+        <v>15.79688263574934</v>
       </c>
       <c r="H15">
-        <v>12.43497727140415</v>
+        <v>7.061565572125224</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.517496230247257</v>
+        <v>13.8496970201038</v>
       </c>
       <c r="N15">
-        <v>16.92191549964104</v>
+        <v>11.08871157471922</v>
       </c>
       <c r="O15">
-        <v>17.90482068493962</v>
+        <v>10.81993409222159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.582004566909129</v>
+        <v>15.5256103445446</v>
       </c>
       <c r="C16">
-        <v>6.718423412723627</v>
+        <v>7.963595821626002</v>
       </c>
       <c r="D16">
-        <v>4.922253682763991</v>
+        <v>6.378982582413452</v>
       </c>
       <c r="F16">
-        <v>19.98675862197219</v>
+        <v>14.50914371902263</v>
       </c>
       <c r="G16">
-        <v>21.22829244447822</v>
+        <v>15.64503855793444</v>
       </c>
       <c r="H16">
-        <v>12.46139004650708</v>
+        <v>7.109879341040613</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.340778787391731</v>
+        <v>13.48244977999128</v>
       </c>
       <c r="N16">
-        <v>16.94699131491901</v>
+        <v>11.16185771186212</v>
       </c>
       <c r="O16">
-        <v>17.94901637014111</v>
+        <v>10.85419518196341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.444095341098684</v>
+        <v>15.221562620139</v>
       </c>
       <c r="C17">
-        <v>6.68052797488379</v>
+        <v>7.86662160211747</v>
       </c>
       <c r="D17">
-        <v>4.875428109155937</v>
+        <v>6.273450359486074</v>
       </c>
       <c r="F17">
-        <v>19.99969619079611</v>
+        <v>14.41011973980974</v>
       </c>
       <c r="G17">
-        <v>21.2571766178868</v>
+        <v>15.5591926529859</v>
       </c>
       <c r="H17">
-        <v>12.47807032746573</v>
+        <v>7.140839301408329</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.230308946146756</v>
+        <v>13.25205228526301</v>
       </c>
       <c r="N17">
-        <v>16.96277961560602</v>
+        <v>11.20759923100098</v>
       </c>
       <c r="O17">
-        <v>17.9771246662989</v>
+        <v>10.878697011225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.363886528527932</v>
+        <v>15.04392039024407</v>
       </c>
       <c r="C18">
-        <v>6.658614130727276</v>
+        <v>7.810304966367161</v>
       </c>
       <c r="D18">
-        <v>4.848213781865559</v>
+        <v>6.211904629465495</v>
       </c>
       <c r="F18">
-        <v>20.00767715870404</v>
+        <v>14.35454735959335</v>
       </c>
       <c r="G18">
-        <v>21.27454866500735</v>
+        <v>15.51246586432567</v>
       </c>
       <c r="H18">
-        <v>12.4878397364696</v>
+        <v>7.15911940285222</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.166025190526764</v>
+        <v>13.11766651079736</v>
       </c>
       <c r="N18">
-        <v>16.97200969949479</v>
+        <v>11.23422419987931</v>
       </c>
       <c r="O18">
-        <v>17.9936573871604</v>
+        <v>10.89403031354494</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.336578949875864</v>
+        <v>14.98329896391427</v>
       </c>
       <c r="C19">
-        <v>6.651174794415401</v>
+        <v>7.791145663333227</v>
       </c>
       <c r="D19">
-        <v>4.838951646883035</v>
+        <v>6.190921415598003</v>
       </c>
       <c r="F19">
-        <v>20.01047200144282</v>
+        <v>14.3359689857834</v>
       </c>
       <c r="G19">
-        <v>21.28056059072995</v>
+        <v>15.49709638764626</v>
       </c>
       <c r="H19">
-        <v>12.49117761650933</v>
+        <v>7.165388753716649</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.144133190839682</v>
+        <v>13.07184597270035</v>
       </c>
       <c r="N19">
-        <v>16.97516046930259</v>
+        <v>11.24329284442288</v>
       </c>
       <c r="O19">
-        <v>17.99931783814202</v>
+        <v>10.89943122440671</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.458868315221606</v>
+        <v>15.25421477041481</v>
       </c>
       <c r="C20">
-        <v>6.684574271334891</v>
+        <v>7.877000810195872</v>
       </c>
       <c r="D20">
-        <v>4.880442026651627</v>
+        <v>6.284772153851971</v>
       </c>
       <c r="F20">
-        <v>19.99826310276375</v>
+        <v>14.42051778479399</v>
       </c>
       <c r="G20">
-        <v>21.25402327407497</v>
+        <v>15.56805603514775</v>
       </c>
       <c r="H20">
-        <v>12.47627653688886</v>
+        <v>7.137494351926262</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.242145983602033</v>
+        <v>13.27677194444571</v>
       </c>
       <c r="N20">
-        <v>16.96108350025349</v>
+        <v>11.20269722033153</v>
       </c>
       <c r="O20">
-        <v>17.97409464729494</v>
+        <v>10.87595947185218</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.858998896656797</v>
+        <v>16.13149109219714</v>
       </c>
       <c r="C21">
-        <v>6.795354680556211</v>
+        <v>8.158929354804553</v>
       </c>
       <c r="D21">
-        <v>5.016444096539415</v>
+        <v>6.589953578781682</v>
       </c>
       <c r="F21">
-        <v>19.96369390552621</v>
+        <v>14.72112380489443</v>
       </c>
       <c r="G21">
-        <v>21.17394338253485</v>
+        <v>15.83837039610432</v>
       </c>
       <c r="H21">
-        <v>12.42830537512481</v>
+        <v>7.049511002651521</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.56247487896866</v>
+        <v>13.9429295016238</v>
       </c>
       <c r="N21">
-        <v>16.91556649794867</v>
+        <v>11.07009833011121</v>
       </c>
       <c r="O21">
-        <v>17.89371832499891</v>
+        <v>10.81219830015556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.11218299486678</v>
+        <v>16.68036410085629</v>
       </c>
       <c r="C22">
-        <v>6.8666069107995</v>
+        <v>8.338131369914162</v>
       </c>
       <c r="D22">
-        <v>5.102714643348321</v>
+        <v>6.78178155166658</v>
       </c>
       <c r="F22">
-        <v>19.9459166449067</v>
+        <v>14.92989967377657</v>
       </c>
       <c r="G22">
-        <v>21.12841508962916</v>
+        <v>16.0393155386672</v>
       </c>
       <c r="H22">
-        <v>12.39851298013243</v>
+        <v>6.996496310033329</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.76494690983831</v>
+        <v>14.36151997961234</v>
       </c>
       <c r="N22">
-        <v>16.88714179209112</v>
+        <v>10.98632793619953</v>
       </c>
       <c r="O22">
-        <v>17.84445026971054</v>
+        <v>10.78242435663301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.97783439999869</v>
+        <v>16.38965356474699</v>
       </c>
       <c r="C23">
-        <v>6.828688307747862</v>
+        <v>8.242961481391186</v>
       </c>
       <c r="D23">
-        <v>5.056914604302035</v>
+        <v>6.680100704455191</v>
       </c>
       <c r="F23">
-        <v>19.9549636463572</v>
+        <v>14.81734744239515</v>
       </c>
       <c r="G23">
-        <v>21.15208894635397</v>
+        <v>15.92981777367395</v>
       </c>
       <c r="H23">
-        <v>12.41427113712148</v>
+        <v>7.024366576742269</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.657524753032044</v>
+        <v>14.13965186686282</v>
       </c>
       <c r="N23">
-        <v>16.90219171108004</v>
+        <v>11.03076913971088</v>
       </c>
       <c r="O23">
-        <v>17.87044668978772</v>
+        <v>10.79718495400125</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.452192323483963</v>
+        <v>15.23946158401163</v>
       </c>
       <c r="C24">
-        <v>6.682745335910099</v>
+        <v>7.872310126756705</v>
       </c>
       <c r="D24">
-        <v>4.878176148070371</v>
+        <v>6.27965629138501</v>
       </c>
       <c r="F24">
-        <v>19.99890931065164</v>
+        <v>14.41581259945544</v>
       </c>
       <c r="G24">
-        <v>21.25544651494096</v>
+        <v>15.5640407253392</v>
       </c>
       <c r="H24">
-        <v>12.47708694985874</v>
+        <v>7.139005108976941</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.236796864324884</v>
+        <v>13.26560218736021</v>
       </c>
       <c r="N24">
-        <v>16.96184983681749</v>
+        <v>11.20491239992673</v>
       </c>
       <c r="O24">
-        <v>17.97546335745997</v>
+        <v>10.87719323904713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.851632941959551</v>
+        <v>13.89316352794076</v>
       </c>
       <c r="C25">
-        <v>6.520900943369861</v>
+        <v>7.452068774877558</v>
       </c>
       <c r="D25">
-        <v>4.6746943738831</v>
+        <v>5.815444252973401</v>
       </c>
       <c r="F25">
-        <v>20.06693202095495</v>
+        <v>14.03550285588714</v>
       </c>
       <c r="G25">
-        <v>21.39590238471622</v>
+        <v>15.27011953599358</v>
       </c>
       <c r="H25">
-        <v>12.55154946875415</v>
+        <v>7.280599505990174</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.754709077504936</v>
+        <v>12.25158622288158</v>
       </c>
       <c r="N25">
-        <v>17.03190280430455</v>
+        <v>11.40478778129567</v>
       </c>
       <c r="O25">
-        <v>18.10271342893637</v>
+        <v>11.01044558057648</v>
       </c>
     </row>
   </sheetData>
